--- a/datasheets/ESP32.xlsx
+++ b/datasheets/ESP32.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Tabelle2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle2!$A$1:$T$57</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle2!$B$1:$U$57</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="324">
   <si>
     <t xml:space="preserve">ESP8266</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.3V to 3.6V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index</t>
   </si>
   <si>
     <t xml:space="preserve">No.</t>
@@ -180,6 +183,9 @@
     <t xml:space="preserve">Paddle</t>
   </si>
   <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
     <t xml:space="preserve">3V3</t>
   </si>
   <si>
@@ -189,6 +195,9 @@
     <t xml:space="preserve">“+3.3</t>
   </si>
   <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
     <t xml:space="preserve">EN</t>
   </si>
   <si>
@@ -198,9 +207,24 @@
     <t xml:space="preserve">RESET</t>
   </si>
   <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND</t>
   </si>
   <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO00</t>
   </si>
   <si>
@@ -225,7 +249,10 @@
     <t xml:space="preserve">CLK_OUT1</t>
   </si>
   <si>
-    <t xml:space="preserve">BOOTLOAD</t>
+    <t xml:space="preserve">BOOTLOAD*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
   </si>
   <si>
     <t xml:space="preserve">IO02</t>
@@ -279,6 +306,9 @@
     <t xml:space="preserve">KEEPALIVE</t>
   </si>
   <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO05</t>
   </si>
   <si>
@@ -294,7 +324,10 @@
     <t xml:space="preserve">HS1_DATA6</t>
   </si>
   <si>
-    <t xml:space="preserve">SD CS</t>
+    <t xml:space="preserve">SD CS*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
   </si>
   <si>
     <t xml:space="preserve">IO12</t>
@@ -324,6 +357,9 @@
     <t xml:space="preserve">EMAC_TXD3</t>
   </si>
   <si>
+    <t xml:space="preserve">l</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO13</t>
   </si>
   <si>
@@ -351,6 +387,12 @@
     <t xml:space="preserve">EMAC_RX_ER</t>
   </si>
   <si>
+    <t xml:space="preserve">BLINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO14</t>
   </si>
   <si>
@@ -378,6 +420,9 @@
     <t xml:space="preserve">EMAC_TXD2</t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO15</t>
   </si>
   <si>
@@ -405,6 +450,9 @@
     <t xml:space="preserve">EMAC_RXD3</t>
   </si>
   <si>
+    <t xml:space="preserve">o</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO16</t>
   </si>
   <si>
@@ -420,7 +468,10 @@
     <t xml:space="preserve">HS1_DATA4</t>
   </si>
   <si>
-    <t xml:space="preserve">RXD_GPS</t>
+    <t xml:space="preserve">GPS_RXD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
   </si>
   <si>
     <t xml:space="preserve">IO17</t>
@@ -438,7 +489,10 @@
     <t xml:space="preserve">HS1_DATA5</t>
   </si>
   <si>
-    <t xml:space="preserve">TXD_GPS</t>
+    <t xml:space="preserve">GPS_TXD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q</t>
   </si>
   <si>
     <t xml:space="preserve">IO18</t>
@@ -456,6 +510,9 @@
     <t xml:space="preserve">SPI SCLK</t>
   </si>
   <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO19</t>
   </si>
   <si>
@@ -471,7 +528,10 @@
     <t xml:space="preserve">EMAC_TXD0</t>
   </si>
   <si>
-    <t xml:space="preserve">SPI MISO</t>
+    <t xml:space="preserve">SPI_SDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">IO21</t>
@@ -489,6 +549,9 @@
     <t xml:space="preserve">I2C SDA</t>
   </si>
   <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO22</t>
   </si>
   <si>
@@ -507,6 +570,9 @@
     <t xml:space="preserve">I2C SCK</t>
   </si>
   <si>
+    <t xml:space="preserve">u</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO23</t>
   </si>
   <si>
@@ -522,6 +588,9 @@
     <t xml:space="preserve">SPI MOSI</t>
   </si>
   <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO25</t>
   </si>
   <si>
@@ -543,6 +612,9 @@
     <t xml:space="preserve">BUSY*</t>
   </si>
   <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO26</t>
   </si>
   <si>
@@ -561,7 +633,7 @@
     <t xml:space="preserve">EMAC_RXD1</t>
   </si>
   <si>
-    <t xml:space="preserve">BLINK</t>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">IO27</t>
@@ -585,6 +657,9 @@
     <t xml:space="preserve">AN0_CS*</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO32</t>
   </si>
   <si>
@@ -606,6 +681,9 @@
     <t xml:space="preserve">AN1_CS*</t>
   </si>
   <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO33</t>
   </si>
   <si>
@@ -627,6 +705,9 @@
     <t xml:space="preserve">AN2_CS*</t>
   </si>
   <si>
+    <t xml:space="preserve">za</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO34</t>
   </si>
   <si>
@@ -639,6 +720,9 @@
     <t xml:space="preserve">ADC1_CH06</t>
   </si>
   <si>
+    <t xml:space="preserve">zb</t>
+  </si>
+  <si>
     <t xml:space="preserve">IO35</t>
   </si>
   <si>
@@ -651,7 +735,10 @@
     <t xml:space="preserve">ADC1_CH07</t>
   </si>
   <si>
-    <t xml:space="preserve">SHUTDOWN*</t>
+    <t xml:space="preserve">POWER_SW*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zc</t>
   </si>
   <si>
     <t xml:space="preserve">SENSOR_VN</t>
@@ -669,6 +756,12 @@
     <t xml:space="preserve">ADC_H</t>
   </si>
   <si>
+    <t xml:space="preserve">NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zd</t>
+  </si>
+  <si>
     <t xml:space="preserve">SENSOR_VP</t>
   </si>
   <si>
@@ -684,7 +777,10 @@
     <t xml:space="preserve">GPS 1PPS</t>
   </si>
   <si>
-    <t xml:space="preserve">NC</t>
+    <t xml:space="preserve">ze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zf</t>
   </si>
   <si>
     <t xml:space="preserve">SCK/CLK*</t>
@@ -711,6 +807,9 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
+    <t xml:space="preserve">zh</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCS/CMD*</t>
   </si>
   <si>
@@ -726,6 +825,9 @@
     <t xml:space="preserve">HS1_CMD</t>
   </si>
   <si>
+    <t xml:space="preserve">zi</t>
+  </si>
+  <si>
     <t xml:space="preserve">SDI/SD1*</t>
   </si>
   <si>
@@ -744,6 +846,9 @@
     <t xml:space="preserve">HS1_DATA1</t>
   </si>
   <si>
+    <t xml:space="preserve">zj</t>
+  </si>
+  <si>
     <t xml:space="preserve">SDO/SD0*</t>
   </si>
   <si>
@@ -762,6 +867,9 @@
     <t xml:space="preserve">HS1_DATA0</t>
   </si>
   <si>
+    <t xml:space="preserve">zk</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHD/SD2*</t>
   </si>
   <si>
@@ -780,6 +888,9 @@
     <t xml:space="preserve">HS1_DATA2</t>
   </si>
   <si>
+    <t xml:space="preserve">zl</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWP/SD3*</t>
   </si>
   <si>
@@ -798,6 +909,9 @@
     <t xml:space="preserve">HS1_DATA3</t>
   </si>
   <si>
+    <t xml:space="preserve">zm</t>
+  </si>
+  <si>
     <t xml:space="preserve">RXD0</t>
   </si>
   <si>
@@ -811,6 +925,9 @@
   </si>
   <si>
     <t xml:space="preserve">CON_RXD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zn</t>
   </si>
   <si>
     <t xml:space="preserve">TXD0</t>
@@ -1487,33 +1604,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S8" activeCellId="0" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="3.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="2" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="2" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="13" style="2" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="2" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="14.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="17.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="37.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="26" style="2" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="2" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="2" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="2" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="14" style="2" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="2" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="14.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="11.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="17.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="37.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="27" style="2" width="11.42"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1533,19 +1650,19 @@
         <v>40</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>44</v>
@@ -1565,732 +1682,815 @@
       <c r="P1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="S1" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>57</v>
+      <c r="S4" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="0"/>
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>39</v>
+        <v>109</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>39</v>
+        <v>119</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>39</v>
+        <v>130</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>39</v>
+        <v>140</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>129</v>
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S16" s="0"/>
+        <v>145</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>135</v>
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="S18" s="0"/>
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>145</v>
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="S19" s="0"/>
+        <v>164</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="T19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>153</v>
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>156</v>
+        <v>67</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>159</v>
+        <v>177</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>171</v>
+        <v>190</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="R24" s="0" t="s">
-        <v>178</v>
+        <v>198</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="R25" s="0" t="s">
-        <v>185</v>
+        <v>206</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>191</v>
+        <v>214</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>192</v>
+        <v>216</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S27" s="0"/>
+        <v>224</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="T27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G28" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -2301,28 +2501,31 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="6"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -2333,34 +2536,37 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="5" t="s">
-        <v>208</v>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="C30" s="5" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I30" s="5"/>
+        <v>240</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -2368,37 +2574,40 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="Q30" s="5"/>
       <c r="R30" s="5" t="s">
-        <v>171</v>
+        <v>242</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="C31" s="5" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>247</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -2406,460 +2615,487 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="Q31" s="5"/>
       <c r="R31" s="5" t="s">
-        <v>218</v>
+        <v>242</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>219</v>
+      <c r="C32" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+      <c r="A33" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F33" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="K33" s="7"/>
       <c r="L33" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7" t="s">
-        <v>227</v>
+        <v>255</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+      <c r="A34" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B34" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="C34" s="7" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="7"/>
+        <v>262</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7" t="s">
-        <v>230</v>
-      </c>
+      <c r="K34" s="7"/>
       <c r="L34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M34" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7" t="s">
-        <v>227</v>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+      <c r="A35" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="C35" s="7" t="s">
-        <v>59</v>
+        <v>267</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>268</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="7" t="s">
-        <v>235</v>
-      </c>
+      <c r="K35" s="7"/>
       <c r="L35" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7" t="s">
-        <v>227</v>
+        <v>269</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+      <c r="A36" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="C36" s="7" t="s">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="7"/>
+        <v>275</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="K36" s="7"/>
       <c r="L36" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7" t="s">
-        <v>227</v>
+        <v>276</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+      <c r="A37" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="C37" s="7" t="s">
-        <v>59</v>
+        <v>281</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="7" t="s">
-        <v>247</v>
-      </c>
+      <c r="K37" s="7"/>
       <c r="L37" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7" t="s">
-        <v>227</v>
+        <v>283</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+      <c r="A38" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="C38" s="7" t="s">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="K38" s="7"/>
       <c r="L38" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7" t="s">
-        <v>227</v>
+        <v>290</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>260</v>
+        <v>67</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>261</v>
+        <v>298</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>59</v>
+        <v>301</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>266</v>
+        <v>67</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>305</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>268</v>
+      <c r="B43" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="C44" s="0"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="D44" s="0"/>
-      <c r="F44" s="0"/>
+      <c r="E44" s="0"/>
       <c r="G44" s="0"/>
-      <c r="L44" s="0"/>
+      <c r="H44" s="0"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
       <c r="O44" s="0"/>
       <c r="P44" s="0"/>
       <c r="Q44" s="0"/>
-      <c r="R44" s="2" t="s">
-        <v>270</v>
+      <c r="R44" s="0"/>
+      <c r="S44" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C45" s="0"/>
+      <c r="C45" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="D45" s="0"/>
-      <c r="F45" s="0"/>
+      <c r="E45" s="0"/>
       <c r="G45" s="0"/>
-      <c r="L45" s="0"/>
+      <c r="H45" s="0"/>
       <c r="M45" s="0"/>
       <c r="N45" s="0"/>
       <c r="O45" s="0"/>
       <c r="P45" s="0"/>
       <c r="Q45" s="0"/>
-      <c r="R45" s="2" t="s">
-        <v>272</v>
+      <c r="R45" s="0"/>
+      <c r="S45" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="C46" s="0"/>
+      <c r="C46" s="0" t="s">
+        <v>312</v>
+      </c>
       <c r="D46" s="0"/>
-      <c r="F46" s="0"/>
+      <c r="E46" s="0"/>
       <c r="G46" s="0"/>
-      <c r="L46" s="0"/>
+      <c r="H46" s="0"/>
       <c r="M46" s="0"/>
       <c r="N46" s="0"/>
       <c r="O46" s="0"/>
       <c r="P46" s="0"/>
       <c r="Q46" s="0"/>
-      <c r="R46" s="2" t="s">
-        <v>274</v>
+      <c r="R46" s="0"/>
+      <c r="S46" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C47" s="0"/>
+      <c r="C47" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="D47" s="0"/>
-      <c r="F47" s="0"/>
+      <c r="E47" s="0"/>
       <c r="G47" s="0"/>
-      <c r="L47" s="0"/>
+      <c r="H47" s="0"/>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
       <c r="O47" s="0"/>
       <c r="P47" s="0"/>
       <c r="Q47" s="0"/>
-      <c r="R47" s="2" t="s">
-        <v>276</v>
+      <c r="R47" s="0"/>
+      <c r="S47" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" s="0"/>
+      <c r="C48" s="0" t="s">
+        <v>316</v>
+      </c>
       <c r="D48" s="0"/>
-      <c r="F48" s="0"/>
+      <c r="E48" s="0"/>
       <c r="G48" s="0"/>
-      <c r="L48" s="0"/>
+      <c r="H48" s="0"/>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
       <c r="O48" s="0"/>
       <c r="P48" s="0"/>
       <c r="Q48" s="0"/>
-      <c r="R48" s="2" t="s">
-        <v>278</v>
+      <c r="R48" s="0"/>
+      <c r="S48" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C49" s="0"/>
+      <c r="C49" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="D49" s="0"/>
-      <c r="F49" s="0"/>
+      <c r="E49" s="0"/>
       <c r="G49" s="0"/>
-      <c r="L49" s="0"/>
+      <c r="H49" s="0"/>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
       <c r="O49" s="0"/>
       <c r="P49" s="0"/>
       <c r="Q49" s="0"/>
-      <c r="R49" s="0" t="s">
-        <v>280</v>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C50" s="0"/>
+      <c r="C50" s="0" t="s">
+        <v>320</v>
+      </c>
       <c r="D50" s="0"/>
-      <c r="F50" s="0"/>
+      <c r="E50" s="0"/>
       <c r="G50" s="0"/>
-      <c r="L50" s="0"/>
+      <c r="H50" s="0"/>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
       <c r="O50" s="0"/>
       <c r="P50" s="0"/>
       <c r="Q50" s="0"/>
-      <c r="R50" s="2" t="s">
-        <v>282</v>
+      <c r="R50" s="0"/>
+      <c r="S50" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C51" s="0"/>
+      <c r="C51" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="D51" s="0"/>
-      <c r="F51" s="0"/>
+      <c r="E51" s="0"/>
       <c r="G51" s="0"/>
-      <c r="L51" s="0"/>
+      <c r="H51" s="0"/>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
       <c r="O51" s="0"/>
       <c r="P51" s="0"/>
       <c r="Q51" s="0"/>
-      <c r="R51" s="2" t="s">
-        <v>284</v>
+      <c r="R51" s="0"/>
+      <c r="S51" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
